--- a/BackTest/2020-01-19 BackTest XSR.xlsx
+++ b/BackTest/2020-01-19 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7700953.206185741</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>7113176.589385741</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>6930438.113385742</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>6847894.197685742</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>6659825.188585741</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>6316191.719585742</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6192373.124485742</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>6620564.606685743</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>6620564.606685743</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>6340750.934585743</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>6341302.153185743</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>6373569.432385743</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>6373569.432385743</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>6173765.069185743</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>6173765.069185743</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>5514047.400585743</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>5514047.400585743</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>5514047.400585743</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>4722524.542585743</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>4502488.431885743</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>4502488.431885743</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3974405.445685742</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3974405.445685742</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3814450.059685742</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-3517086.387207875</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-3054822.937007876</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1704542.681507876</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1704542.681507876</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1911252.098807876</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2421802.220007876</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2307002.945807876</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2218518.732107876</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-3174405.722107876</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-4049693.512307876</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -16819,11 +16819,17 @@
         <v>-9922673.197243338</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +16858,17 @@
         <v>-9922673.197243338</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>5.895</v>
+      </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +16897,17 @@
         <v>-9571808.237943338</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>5.895</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +16936,17 @@
         <v>-9571808.237943338</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>5.896</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +16975,17 @@
         <v>-9733560.671343338</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>5.896</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17014,17 @@
         <v>-9733560.671343338</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>5.893</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17053,17 @@
         <v>-9733560.671343338</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>5.893</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17092,17 @@
         <v>-9284320.449543338</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>5.893</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17131,17 @@
         <v>-9283971.526943339</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>5.909</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17174,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17211,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17248,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +17285,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +17322,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +17359,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +17396,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17433,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +17470,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +17507,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +17544,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +17581,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +17618,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +17655,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +17692,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +17729,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17766,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +17803,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +17840,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +17877,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +17914,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +17951,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +17988,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +18025,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18062,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +18099,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18136,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18173,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +18210,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18247,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18284,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +18321,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18358,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +18395,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +18432,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18469,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18506,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18543,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18580,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18617,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +18654,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +18691,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18724,17 @@
         <v>-9242596.832343342</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>5.902</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +18763,17 @@
         <v>-9044968.893243343</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>5.909</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18802,17 @@
         <v>-8771152.032743342</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>5.917</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +18841,17 @@
         <v>-8771152.032743342</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>5.918</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +18880,17 @@
         <v>-8356885.973343343</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>5.918</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +18919,17 @@
         <v>-8536972.804243343</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>5.922</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +18958,17 @@
         <v>-8536972.804243343</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>5.921</v>
+      </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +19001,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +19038,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +19075,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +19112,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +19149,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +19186,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +19223,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +19260,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +19297,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +19334,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +19371,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +19408,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +19445,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +19482,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +19519,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +19556,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19589,17 @@
         <v>-11135224.92490946</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>5.918</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +19628,17 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>5.879</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19667,17 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>5.876</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19706,17 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>5.876</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +19745,17 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>5.876</v>
+      </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19784,17 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>5.876</v>
+      </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,15 +19823,17 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>5.876</v>
       </c>
-      <c r="J578" t="n">
-        <v>5.876</v>
-      </c>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,17 +19862,15 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>5.876</v>
       </c>
-      <c r="J579" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L579" t="n">
@@ -19537,17 +19901,15 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>5.876</v>
       </c>
-      <c r="J580" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L580" t="n">
@@ -19578,15 +19940,17 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>5.876</v>
       </c>
-      <c r="J581" t="n">
-        <v>5.876</v>
-      </c>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19615,17 +19979,15 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>5.876</v>
       </c>
-      <c r="J582" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L582" t="n">
@@ -19656,14 +20018,12 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>5.876</v>
       </c>
-      <c r="J583" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19697,14 +20057,12 @@
         <v>-11494505.14690946</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>5.876</v>
       </c>
-      <c r="J584" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19738,14 +20096,12 @@
         <v>-11106881.55690946</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>5.902</v>
       </c>
-      <c r="J585" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19779,14 +20135,12 @@
         <v>-11127052.81360946</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>5.909</v>
       </c>
-      <c r="J586" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19820,14 +20174,12 @@
         <v>-11120971.85590946</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>5.902</v>
       </c>
-      <c r="J587" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19861,12 +20213,12 @@
         <v>-11488167.35330946</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19900,12 +20252,12 @@
         <v>-11569685.95890946</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>5.903</v>
+      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19939,12 +20291,12 @@
         <v>-11542691.52230946</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19978,12 +20330,12 @@
         <v>-11125314.40940946</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20017,12 +20369,12 @@
         <v>-10815418.79030946</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20056,12 +20408,12 @@
         <v>-10729231.69880946</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>5.921</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20095,12 +20447,12 @@
         <v>-10450526.69050946</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>5.937</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20134,12 +20486,12 @@
         <v>-10450526.69050946</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20173,12 +20525,12 @@
         <v>-10449431.31080946</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20212,12 +20564,12 @@
         <v>-10790270.56390946</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20251,12 +20603,12 @@
         <v>-10789465.64520946</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20290,12 +20642,12 @@
         <v>-10435384.50960946</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20332,9 +20684,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20371,9 +20721,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20410,9 +20758,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20449,9 +20795,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20488,9 +20832,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20527,9 +20869,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20566,9 +20906,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20605,9 +20943,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20644,9 +20980,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20683,9 +21017,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20722,9 +21054,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20761,9 +21091,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20800,9 +21128,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20839,9 +21165,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20878,9 +21202,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20917,9 +21239,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20956,9 +21276,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20995,9 +21313,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21034,9 +21350,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21073,9 +21387,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21112,9 +21424,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21151,9 +21461,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21190,9 +21498,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21229,9 +21535,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21268,9 +21572,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21307,9 +21609,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21346,9 +21646,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21385,9 +21683,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21421,12 +21717,12 @@
         <v>-10942818.86870946</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21460,12 +21756,12 @@
         <v>-10616303.21309941</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21499,12 +21795,12 @@
         <v>-10975886.91209941</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5.972</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21538,12 +21834,12 @@
         <v>-10975886.91209941</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>5.958</v>
+      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21577,12 +21873,12 @@
         <v>-10975886.91209941</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5.958</v>
+      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21616,12 +21912,12 @@
         <v>-10700079.80800946</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5.958</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21655,12 +21951,12 @@
         <v>-10544014.32350946</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21697,9 +21993,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21736,9 +22030,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21772,12 +22064,12 @@
         <v>-11375053.14332767</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>5.976</v>
+      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21814,9 +22106,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21853,9 +22143,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21892,9 +22180,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21931,9 +22217,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21970,9 +22254,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22009,9 +22291,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22048,9 +22328,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22087,9 +22365,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22126,9 +22402,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22165,9 +22439,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22204,9 +22476,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22243,9 +22513,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22282,9 +22550,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22321,9 +22587,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22357,12 +22621,12 @@
         <v>-11987854.35002767</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5.914</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22396,12 +22660,12 @@
         <v>-11626538.51632767</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5.914</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22435,12 +22699,12 @@
         <v>-11626026.86942767</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5.922</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22474,12 +22738,12 @@
         <v>-11615644.34782767</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5.934</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22516,9 +22780,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22555,9 +22817,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22594,9 +22854,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22633,9 +22891,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22672,9 +22928,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22711,9 +22965,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22750,9 +23002,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22789,9 +23039,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22828,9 +23076,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22867,9 +23113,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22906,9 +23150,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22945,9 +23187,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22984,9 +23224,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23023,9 +23261,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23062,9 +23298,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23101,9 +23335,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23140,9 +23372,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23179,9 +23409,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23218,9 +23446,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23257,9 +23483,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23296,9 +23520,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23335,9 +23557,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23374,9 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23413,9 +23631,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23452,9 +23668,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23491,9 +23705,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23530,9 +23742,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23569,9 +23779,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23608,9 +23816,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23647,9 +23853,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23686,9 +23890,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23725,9 +23927,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23764,9 +23964,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23800,12 +23998,12 @@
         <v>-13051244.32930946</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>5.931</v>
+      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23839,12 +24037,12 @@
         <v>-12815473.14510946</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>5.922</v>
+      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23878,12 +24076,12 @@
         <v>-12999621.71850946</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>5.963</v>
+      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23917,12 +24115,12 @@
         <v>-12785410.16980946</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23956,12 +24154,12 @@
         <v>-12783458.91120946</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>5.954</v>
+      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23995,12 +24193,12 @@
         <v>-13269524.38320946</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24034,12 +24232,12 @@
         <v>-13116609.72200946</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>5.878</v>
+      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24076,9 +24274,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24112,12 +24308,12 @@
         <v>-13725648.98930946</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24151,12 +24347,12 @@
         <v>-13725648.98930946</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24190,12 +24386,12 @@
         <v>-13315046.28860946</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24229,12 +24425,12 @@
         <v>-13514505.29420946</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24268,12 +24464,12 @@
         <v>-13526536.01870946</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>5.903</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24307,12 +24503,12 @@
         <v>-13526536.01870946</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>5.872</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24346,12 +24542,12 @@
         <v>-13346875.49300946</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>5.872</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24385,12 +24581,12 @@
         <v>-13780138.39020946</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24424,12 +24620,12 @@
         <v>-13780138.39020946</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24463,12 +24659,12 @@
         <v>-13545443.50150946</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24502,12 +24698,12 @@
         <v>-13545443.50150946</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24541,12 +24737,12 @@
         <v>-13247184.52800946</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24580,12 +24776,12 @@
         <v>-12662208.01290946</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>5.896</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24619,12 +24815,12 @@
         <v>-12880827.00040946</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>5.903</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24658,12 +24854,12 @@
         <v>-12362720.93831333</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24697,12 +24893,12 @@
         <v>-12723962.56671333</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24736,12 +24932,12 @@
         <v>-12723962.56671333</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24775,12 +24971,12 @@
         <v>-12395493.07961333</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24814,12 +25010,12 @@
         <v>-12455058.14281333</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>5.942</v>
+      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24853,12 +25049,12 @@
         <v>-12112774.58661333</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24892,12 +25088,12 @@
         <v>-12522506.17861333</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24931,12 +25127,12 @@
         <v>-12725286.79601333</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>5.924</v>
+      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24970,12 +25166,12 @@
         <v>-13066388.98291333</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>5.898</v>
+      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25009,14 +25205,12 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>5.896</v>
       </c>
-      <c r="J720" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25050,12 +25244,12 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25089,12 +25283,12 @@
         <v>-12522705.27061333</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25128,12 +25322,12 @@
         <v>-12282979.13721333</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25167,12 +25361,12 @@
         <v>-12282979.13721333</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>5.937</v>
+      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25206,12 +25400,12 @@
         <v>-12785147.47091332</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>5.937</v>
+      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25248,9 +25442,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25287,9 +25479,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25326,9 +25516,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25365,9 +25553,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25404,9 +25590,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25443,9 +25627,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25482,9 +25664,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25521,9 +25701,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25560,9 +25738,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25599,9 +25775,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25638,9 +25812,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25677,9 +25849,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25716,9 +25886,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25755,9 +25923,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25794,9 +25960,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25833,9 +25997,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25872,9 +26034,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25911,9 +26071,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25950,9 +26108,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25989,9 +26145,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26028,9 +26182,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26067,9 +26219,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26106,9 +26256,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26145,9 +26293,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26184,9 +26330,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26223,9 +26367,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26262,9 +26404,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26301,9 +26441,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26340,9 +26478,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26379,9 +26515,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26418,9 +26552,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26457,9 +26589,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26496,9 +26626,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26535,9 +26663,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26574,9 +26700,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26613,9 +26737,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26652,9 +26774,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26691,9 +26811,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26730,9 +26848,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26769,9 +26885,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26808,9 +26922,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26847,9 +26959,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26886,9 +26996,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26925,9 +27033,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26964,9 +27070,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27003,9 +27107,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27042,9 +27144,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27081,9 +27181,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27120,9 +27218,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27159,9 +27255,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27198,9 +27292,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27237,9 +27329,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27276,9 +27366,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27315,9 +27403,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27354,9 +27440,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27393,9 +27477,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27432,9 +27514,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27471,9 +27551,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27510,9 +27588,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27549,9 +27625,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27588,9 +27662,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27627,9 +27699,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27666,9 +27736,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27705,9 +27773,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27744,9 +27810,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27783,9 +27847,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27822,9 +27884,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27861,9 +27921,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27900,9 +27958,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27939,9 +27995,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27978,9 +28032,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28017,9 +28069,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28056,9 +28106,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28095,9 +28143,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28134,9 +28180,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28173,9 +28217,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28212,9 +28254,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28251,9 +28291,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28290,9 +28328,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28329,9 +28365,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28368,9 +28402,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28407,9 +28439,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28446,9 +28476,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28485,9 +28513,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28524,9 +28550,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28563,9 +28587,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28602,9 +28624,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28641,9 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28680,9 +28698,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28719,9 +28735,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28758,9 +28772,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28797,9 +28809,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28836,9 +28846,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28875,9 +28883,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28914,9 +28920,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28953,9 +28957,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28992,9 +28994,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29031,9 +29031,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29070,9 +29068,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29109,9 +29105,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29148,9 +29142,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29187,9 +29179,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29226,9 +29216,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29265,9 +29253,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29304,9 +29290,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29343,9 +29327,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29382,9 +29364,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29421,9 +29401,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29460,9 +29438,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29499,9 +29475,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29538,9 +29512,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29577,9 +29549,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29616,9 +29586,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29655,9 +29623,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29694,9 +29660,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29733,9 +29697,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29772,9 +29734,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29808,12 +29768,12 @@
         <v>-13916978.20702836</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>5.938</v>
+      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29850,9 +29810,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29886,12 +29844,12 @@
         <v>-14054116.60082836</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29925,12 +29883,12 @@
         <v>-14053616.60082836</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>5.952</v>
+      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29964,12 +29922,12 @@
         <v>-14053116.60082836</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30003,12 +29961,12 @@
         <v>-13905092.44972835</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30045,9 +30003,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30084,9 +30040,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30123,9 +30077,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30162,9 +30114,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30201,9 +30151,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30240,9 +30188,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30276,12 +30222,12 @@
         <v>-14287719.94099858</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>5.955</v>
+      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30318,9 +30264,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30357,9 +30301,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30396,9 +30338,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30435,9 +30375,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30471,12 +30409,12 @@
         <v>-14281670.26189858</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30510,12 +30448,12 @@
         <v>-13952305.16969858</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30549,12 +30487,12 @@
         <v>-13952305.16969858</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30591,9 +30529,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30630,9 +30566,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30669,9 +30603,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30708,9 +30640,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30747,9 +30677,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30786,9 +30714,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30825,9 +30751,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30864,9 +30788,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30903,9 +30825,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30942,9 +30862,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30981,9 +30899,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31020,9 +30936,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31059,9 +30973,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31098,9 +31010,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31134,12 +31044,12 @@
         <v>-12014000.80212313</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>5.876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31176,9 +31086,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31215,9 +31123,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31254,9 +31160,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31293,9 +31197,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31332,9 +31234,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31371,9 +31271,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31410,9 +31308,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31449,9 +31345,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31488,9 +31382,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31527,9 +31419,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31566,9 +31456,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31605,9 +31493,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31644,9 +31530,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31683,9 +31567,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31722,9 +31604,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31761,9 +31641,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31800,9 +31678,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31839,9 +31715,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31878,9 +31752,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31917,9 +31789,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31956,9 +31826,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31995,9 +31863,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32034,9 +31900,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32073,9 +31937,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32112,9 +31974,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32151,9 +32011,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32190,9 +32048,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32229,9 +32085,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32268,9 +32122,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32307,9 +32159,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32346,9 +32196,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32385,9 +32233,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32424,9 +32270,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32463,9 +32307,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32502,9 +32344,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32541,9 +32381,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32580,9 +32418,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32619,9 +32455,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32658,9 +32492,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32697,9 +32529,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32736,9 +32566,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>5.876</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32750,6 +32578,6 @@
       <c r="M918" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest XSR.xlsx
+++ b/BackTest/2020-01-19 BackTest XSR.xlsx
@@ -3058,7 +3058,7 @@
         <v>-2391982.447932214</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1881125.163232215</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1838832.609432214</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1765672.578071427</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2154571.453271427</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2300361.028271427</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2561628.256871427</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2561628.256871427</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2418909.022471427</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2567035.466771428</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2247256.515071427</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1027401.479587147</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1027401.479587147</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1188881.687387147</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-849528.3313871472</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1088934.114787147</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1156990.395387147</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1524491.846087147</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1530686.080587147</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-3517809.653807876</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-3517086.387207875</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-3054822.937007876</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2347107.964107876</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2307002.945807876</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2218518.732107876</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2907997.952407876</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2896535.799907876</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-3251336.008707876</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-3174405.722107876</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-4049693.512307876</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-4047749.044907876</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-3609803.572907876</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-4044168.924507876</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-4044168.924507876</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-3633211.346207876</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-3801623.830107876</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-4613330.737707876</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-5456384.203407875</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-6475515.999607875</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-6384029.583307875</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-6747043.718307875</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-6742662.739407875</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-7114307.287607875</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-7536797.840007875</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-7740496.501907875</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-7888847.085907875</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-7888847.085907875</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-8423689.981007874</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-7978871.288907874</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-6253403.250668219</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-6639467.15676822</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-6405158.15676822</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -19525,10 +19525,14 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="J580" t="n">
+        <v>5.876</v>
+      </c>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
@@ -19558,11 +19562,19 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="J581" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +19603,19 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="J582" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +19644,19 @@
         <v>-11656005.84950946</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="J583" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +19685,19 @@
         <v>-11494505.14690946</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="J584" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19726,19 @@
         <v>-11106881.55690946</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="J585" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19767,19 @@
         <v>-11127052.81360946</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="J586" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +19808,19 @@
         <v>-11120971.85590946</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="J587" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +19849,19 @@
         <v>-11488167.35330946</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="J588" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +19890,19 @@
         <v>-11569685.95890946</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>5.903</v>
+      </c>
+      <c r="J589" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +19931,19 @@
         <v>-11542691.52230946</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="J590" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +19972,19 @@
         <v>-11125314.40940946</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="J591" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20013,19 @@
         <v>-10815418.79030946</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J592" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20054,19 @@
         <v>-10729231.69880946</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>5.921</v>
+      </c>
+      <c r="J593" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20095,19 @@
         <v>-10450526.69050946</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>5.937</v>
+      </c>
+      <c r="J594" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +20139,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +20178,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +20217,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +20256,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +20295,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +20334,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20221,8 +20373,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20254,8 +20412,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20287,8 +20451,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +20490,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +20529,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +20568,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +20607,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +20646,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +20685,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +20724,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20551,8 +20763,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20584,8 +20802,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20617,8 +20841,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +20880,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20683,8 +20919,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20716,8 +20958,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20749,8 +20997,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20782,8 +21036,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21075,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +21114,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21153,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20914,8 +21192,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20947,8 +21231,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20980,8 +21270,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21013,8 +21309,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21046,8 +21348,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21079,8 +21387,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21112,8 +21426,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21145,8 +21465,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21178,8 +21504,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21211,8 +21543,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21244,8 +21582,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21277,8 +21621,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +21660,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +21699,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21376,8 +21738,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21409,8 +21777,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21442,8 +21816,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21475,8 +21855,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21508,8 +21894,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +21933,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21574,8 +21972,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21607,8 +22011,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +22050,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21673,8 +22089,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21706,8 +22128,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21739,8 +22167,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21772,8 +22206,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +22245,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21838,8 +22284,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21871,8 +22323,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21904,8 +22362,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,15 +22398,17 @@
         <v>-11626538.51632767</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>5.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>5.914</v>
-      </c>
-      <c r="K653" t="inlineStr"/>
+        <v>5.876</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,17 +22437,15 @@
         <v>-11626026.86942767</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>5.922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>5.914</v>
+        <v>5.876</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L654" t="n">
@@ -22012,17 +22476,15 @@
         <v>-11615644.34782767</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>5.934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>5.914</v>
+        <v>5.876</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L655" t="n">
@@ -22056,8 +22518,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22089,8 +22557,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22122,8 +22596,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22155,8 +22635,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22188,8 +22674,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22221,8 +22713,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22254,8 +22752,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22287,8 +22791,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22320,8 +22830,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22353,8 +22869,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22386,8 +22908,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22419,8 +22947,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22452,8 +22986,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22485,8 +23025,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22518,8 +23064,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22551,8 +23103,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22584,8 +23142,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22617,8 +23181,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22650,8 +23220,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22683,8 +23259,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22716,8 +23298,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22749,8 +23337,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22782,8 +23376,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22815,8 +23415,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22848,8 +23454,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22881,8 +23493,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22914,8 +23532,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22947,8 +23571,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22980,8 +23610,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23013,8 +23649,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23046,8 +23688,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23079,8 +23727,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23112,8 +23766,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23145,8 +23805,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23178,8 +23844,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23211,8 +23883,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23244,8 +23922,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23277,8 +23961,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23310,8 +24000,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23343,8 +24039,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23376,8 +24078,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23409,8 +24117,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23442,8 +24156,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23472,15 +24192,17 @@
         <v>-13315046.28860946</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K699" t="inlineStr"/>
+        <v>5.876</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23513,11 +24235,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L700" t="n">
@@ -23552,7 +24274,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -23593,7 +24315,7 @@
         <v>5.872</v>
       </c>
       <c r="J702" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -23634,7 +24356,7 @@
         <v>5.872</v>
       </c>
       <c r="J703" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -23675,7 +24397,7 @@
         <v>5.89</v>
       </c>
       <c r="J704" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -23716,7 +24438,7 @@
         <v>5.889</v>
       </c>
       <c r="J705" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -23757,7 +24479,7 @@
         <v>5.889</v>
       </c>
       <c r="J706" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -23798,7 +24520,7 @@
         <v>5.894</v>
       </c>
       <c r="J707" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -23839,7 +24561,7 @@
         <v>5.894</v>
       </c>
       <c r="J708" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -23880,7 +24602,7 @@
         <v>5.896</v>
       </c>
       <c r="J709" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -23921,7 +24643,7 @@
         <v>5.903</v>
       </c>
       <c r="J710" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -23962,7 +24684,7 @@
         <v>5.892</v>
       </c>
       <c r="J711" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24003,7 +24725,7 @@
         <v>6.003</v>
       </c>
       <c r="J712" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24038,13 +24760,11 @@
         <v>-12723962.56671333</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>5.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24085,7 +24805,7 @@
         <v>5.925</v>
       </c>
       <c r="J714" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24124,7 +24844,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24163,7 +24883,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24202,7 +24922,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24237,13 +24957,11 @@
         <v>-12725286.79601333</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>5.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24278,13 +24996,11 @@
         <v>-13066388.98291333</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>5.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24319,13 +25035,11 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>5.896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24360,13 +25074,11 @@
         <v>-12936034.70601333</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>5.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24401,13 +25113,11 @@
         <v>-12522705.27061333</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>5.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24446,7 +25156,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -24485,7 +25195,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -24524,7 +25234,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -24563,7 +25273,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -24602,7 +25312,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -24641,7 +25351,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -24680,7 +25390,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -24719,7 +25429,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -24758,7 +25468,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -24797,7 +25507,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -24836,7 +25546,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -24875,7 +25585,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -24914,7 +25624,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -24953,7 +25663,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -24992,7 +25702,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25031,7 +25741,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25070,7 +25780,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25109,7 +25819,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25148,7 +25858,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25187,7 +25897,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25226,7 +25936,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25265,7 +25975,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25304,7 +26014,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -25343,7 +26053,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -25382,7 +26092,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -25421,7 +26131,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -25460,7 +26170,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -25499,7 +26209,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -25538,7 +26248,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -25577,7 +26287,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -25616,7 +26326,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -25655,7 +26365,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -25694,7 +26404,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -25733,7 +26443,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -25772,7 +26482,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -25811,7 +26521,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -25850,7 +26560,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -25889,7 +26599,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -25928,7 +26638,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -25967,7 +26677,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26006,7 +26716,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26045,7 +26755,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26084,7 +26794,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -26123,7 +26833,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26162,7 +26872,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26201,7 +26911,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26240,7 +26950,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26279,7 +26989,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -26318,7 +27028,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -26357,7 +27067,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -26396,7 +27106,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -26435,7 +27145,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -26474,7 +27184,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -26513,7 +27223,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -26552,7 +27262,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -26591,7 +27301,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -26630,7 +27340,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -26669,7 +27379,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -26708,7 +27418,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -26747,7 +27457,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -26786,7 +27496,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -26825,7 +27535,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -26864,7 +27574,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -26903,7 +27613,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -26942,7 +27652,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -26981,7 +27691,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27020,7 +27730,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27059,7 +27769,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -27098,7 +27808,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27137,7 +27847,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -27176,7 +27886,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -27215,7 +27925,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -27254,7 +27964,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -27293,7 +28003,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -27332,7 +28042,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -27371,7 +28081,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -27410,7 +28120,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -27449,7 +28159,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -27488,7 +28198,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -27527,7 +28237,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -27566,7 +28276,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -27605,7 +28315,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -27644,7 +28354,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -27683,7 +28393,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -27722,7 +28432,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -27761,7 +28471,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -27800,7 +28510,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -27839,7 +28549,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -27878,7 +28588,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -27917,7 +28627,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -27956,7 +28666,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -27995,7 +28705,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -28034,7 +28744,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -28073,7 +28783,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -28112,7 +28822,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -28151,7 +28861,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -28190,7 +28900,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -28229,7 +28939,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -28268,7 +28978,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -28307,7 +29017,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -28346,7 +29056,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -28385,7 +29095,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -28424,7 +29134,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -28463,7 +29173,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28502,7 +29212,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28541,7 +29251,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28580,7 +29290,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28619,7 +29329,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28658,7 +29368,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -28697,7 +29407,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -28736,7 +29446,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -28775,7 +29485,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28814,7 +29524,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28853,7 +29563,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28892,7 +29602,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28931,7 +29641,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28970,7 +29680,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -29005,13 +29715,11 @@
         <v>-13360017.63162836</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>5.927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -29046,13 +29754,11 @@
         <v>-13622026.45872836</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>5.985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -29087,13 +29793,11 @@
         <v>-13917478.20702836</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>5.942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -29128,13 +29832,11 @@
         <v>-13916978.20702836</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>5.938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -29169,13 +29871,11 @@
         <v>-14264047.58512836</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>5.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -29210,13 +29910,11 @@
         <v>-14054116.60082836</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>5.941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -29251,13 +29949,11 @@
         <v>-14053616.60082836</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>5.952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -29292,13 +29988,11 @@
         <v>-14053116.60082836</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>5.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -29337,7 +30031,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -29376,7 +30070,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -29415,7 +30109,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -29454,7 +30148,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -29493,7 +30187,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -29532,7 +30226,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -29571,7 +30265,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -29606,13 +30300,11 @@
         <v>-14287719.94099858</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>5.955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -29647,13 +30339,11 @@
         <v>-14287719.94099858</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>5.955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -29688,13 +30378,11 @@
         <v>-13854207.78289858</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>5.955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -29729,13 +30417,11 @@
         <v>-14455700.56239858</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>5.963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -29770,13 +30456,11 @@
         <v>-14282217.24999858</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>5.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29811,13 +30495,11 @@
         <v>-14281670.26189858</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>5.941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29852,13 +30534,11 @@
         <v>-13952305.16969858</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>5.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29897,7 +30577,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29936,7 +30616,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29975,7 +30655,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -30014,7 +30694,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -30053,7 +30733,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -30092,7 +30772,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -30131,7 +30811,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -30170,7 +30850,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -30209,7 +30889,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -30248,7 +30928,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -30287,7 +30967,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -30326,7 +31006,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -30365,7 +31045,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -30400,13 +31080,11 @@
         <v>-12621976.79942313</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>5.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -30441,13 +31119,11 @@
         <v>-12014000.80212313</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>5.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -30486,7 +31162,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -30525,7 +31201,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -30564,7 +31240,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -30603,7 +31279,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -30642,7 +31318,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -30681,7 +31357,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -30720,7 +31396,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -30759,7 +31435,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30798,7 +31474,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30837,7 +31513,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30876,7 +31552,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30915,7 +31591,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30954,7 +31630,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30993,7 +31669,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -31032,7 +31708,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -31071,7 +31747,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -31110,7 +31786,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -31149,7 +31825,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -31188,7 +31864,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -31227,7 +31903,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -31266,7 +31942,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -31305,7 +31981,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -31344,7 +32020,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -31383,7 +32059,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -31422,7 +32098,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -31461,7 +32137,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -31500,7 +32176,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -31539,7 +32215,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -31578,7 +32254,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -31617,7 +32293,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -31656,7 +32332,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -31695,7 +32371,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -31734,7 +32410,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -31773,7 +32449,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -31812,7 +32488,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -31851,7 +32527,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -31890,7 +32566,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -31929,7 +32605,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -31968,7 +32644,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -32007,7 +32683,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -32046,7 +32722,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -32085,7 +32761,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>5.89</v>
+        <v>5.876</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
